--- a/src/main/java/utilities/nopecom.xlsx
+++ b/src/main/java/utilities/nopecom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanjay royal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanjay royal\eclipse-workspace\ecom-automation-suite\src\main\java\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A220E881-C6E0-4EF4-ABA4-17C7F669D7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E775CE5-210F-4C19-9813-AA184E61257B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1EBE1586-F76F-4A31-A042-EF4A5FE14795}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Viti@123</t>
+  </si>
+  <si>
+    <t>fhf@gmail.com</t>
+  </si>
+  <si>
+    <t>qwe@123</t>
   </si>
 </sst>
 </file>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39454910-060B-4E25-9F64-D759898EA548}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:E15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,12 +446,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{71F77B78-FBC5-41C3-94CA-E91ECE5062A3}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{F4F35209-00D5-4663-9EB4-41C469E1B84B}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{174FC285-A88F-47E4-8A8F-71B5D3C773E0}"/>
     <hyperlink ref="B3" r:id="rId4" xr:uid="{1F62E6BB-6B41-4068-A887-88656A02FD7F}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{9CC72FA8-C683-493A-9A5C-82E573B9B649}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{CBAECEA3-372B-47D6-ADB1-D6A433D98CD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
